--- a/datasets/seguidores deleña.xlsx
+++ b/datasets/seguidores deleña.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/iH/Restaurantes/Evaluacion-Restaurantes/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A4754271-CE5A-4616-8D84-1168B85FB7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45773F8E-660A-4DB8-B684-B656D436A40A}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{A4754271-CE5A-4616-8D84-1168B85FB7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A175AA1-2F1C-43B3-8281-8280AB6B93B1}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{D8288E6E-622B-4D80-9F2E-9E2153761734}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D8288E6E-622B-4D80-9F2E-9E2153761734}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="21">
   <si>
     <t>Enero</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>DeLeña</t>
+  </si>
+  <si>
+    <t>Arracház</t>
   </si>
 </sst>
 </file>
@@ -156,9 +159,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01CE4B38-D03E-4598-8C86-7E42E48B8ADA}" name="Tabla1" displayName="Tabla1" ref="A1:E25" totalsRowShown="0">
-  <autoFilter ref="A1:E25" xr:uid="{01CE4B38-D03E-4598-8C86-7E42E48B8ADA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01CE4B38-D03E-4598-8C86-7E42E48B8ADA}" name="Tabla1" displayName="Tabla1" ref="A1:E35" totalsRowShown="0">
+  <autoFilter ref="A1:E35" xr:uid="{01CE4B38-D03E-4598-8C86-7E42E48B8ADA}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{52259318-125D-4823-925B-8CEDE65EB41F}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{3949FDB6-AE10-47A6-8D6C-35EE6EC5DE70}" name="mes"/>
@@ -487,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366B1F1F-7F24-440C-95B7-98361006FDEB}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -936,6 +943,170 @@
         <v>11743</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>56</v>
+      </c>
+      <c r="E30">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
